--- a/results/05-2024/contributions-comparison-05-2024.xlsx
+++ b/results/05-2024/contributions-comparison-05-2024.xlsx
@@ -1038,25 +1038,25 @@
         <v>-0.0708</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0969</v>
+        <v>0.1067</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.045</v>
+        <v>-0.0452</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2751</v>
+        <v>0.295</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2384</v>
+        <v>0.2573</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5026</v>
+        <v>0.3088</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5367</v>
+        <v>0.2796</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7111</v>
+        <v>0.1561</v>
       </c>
       <c r="P10"/>
       <c r="Q10"/>
@@ -1091,31 +1091,31 @@
       <c r="N11"/>
       <c r="O11"/>
       <c r="P11" t="n">
-        <v>0.3556</v>
+        <v>-0.1221</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1834</v>
+        <v>-0.2406</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1366</v>
+        <v>-0.226</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0037</v>
+        <v>-0.2871</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0363</v>
+        <v>-0.2221</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0316</v>
+        <v>-0.1724</v>
       </c>
       <c r="V11" t="n">
-        <v>0.0962</v>
+        <v>-0.035</v>
       </c>
       <c r="W11" t="n">
-        <v>0.122</v>
+        <v>-0.1145</v>
       </c>
       <c r="X11" t="n">
-        <v>-3.7756</v>
+        <v>-0.4321</v>
       </c>
     </row>
     <row r="12">
@@ -2098,25 +2098,25 @@
         <v>-4.5905</v>
       </c>
       <c r="I30" t="n">
-        <v>-2.2972</v>
+        <v>-2.2874</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.5605</v>
+        <v>-0.5607</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0439</v>
+        <v>0.0638</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.2074</v>
+        <v>-0.1884</v>
       </c>
       <c r="M30" t="n">
-        <v>0.7225</v>
+        <v>0.5287</v>
       </c>
       <c r="N30" t="n">
-        <v>0.4883</v>
+        <v>0.2312</v>
       </c>
       <c r="O30" t="n">
-        <v>0.3005</v>
+        <v>-0.2545</v>
       </c>
       <c r="P30"/>
       <c r="Q30"/>
@@ -2151,31 +2151,31 @@
       <c r="N31"/>
       <c r="O31"/>
       <c r="P31" t="n">
-        <v>-0.2837</v>
+        <v>-0.7614</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.0332</v>
+        <v>-0.4572</v>
       </c>
       <c r="R31" t="n">
-        <v>0.1419</v>
+        <v>-0.2208</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.5106</v>
+        <v>-0.8013</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.6713</v>
+        <v>-0.9297</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.4579</v>
+        <v>-0.6619</v>
       </c>
       <c r="V31" t="n">
-        <v>-0.3235</v>
+        <v>-0.4547</v>
       </c>
       <c r="W31" t="n">
-        <v>0.0767</v>
+        <v>-0.1598</v>
       </c>
       <c r="X31" t="n">
-        <v>-75.1223</v>
+        <v>-71.7788</v>
       </c>
     </row>
     <row r="32">
@@ -4006,25 +4006,25 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.0098</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>-0.0199</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>-0.019</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>0.1938</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>0.2571</v>
+        <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>0.555</v>
+        <v>0</v>
       </c>
       <c r="P66"/>
       <c r="Q66"/>
@@ -4059,31 +4059,31 @@
       <c r="N67"/>
       <c r="O67"/>
       <c r="P67" t="n">
-        <v>0.4759</v>
+        <v>-0.0018</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.4215</v>
+        <v>-0.0024</v>
       </c>
       <c r="R67" t="n">
-        <v>0.3602</v>
+        <v>-0.0025</v>
       </c>
       <c r="S67" t="n">
-        <v>0.2876</v>
+        <v>-0.0032</v>
       </c>
       <c r="T67" t="n">
-        <v>0.2558</v>
+        <v>-0.0026</v>
       </c>
       <c r="U67" t="n">
-        <v>0.2023</v>
+        <v>-0.0017</v>
       </c>
       <c r="V67" t="n">
-        <v>0.1317</v>
+        <v>0.0005</v>
       </c>
       <c r="W67" t="n">
-        <v>0.2361</v>
+        <v>-0.0004</v>
       </c>
       <c r="X67" t="n">
-        <v>-3.3484</v>
+        <v>-0.0049</v>
       </c>
     </row>
     <row r="68">
@@ -5066,25 +5066,25 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>-0.0098</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>-0.0199</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>-0.019</v>
+        <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>0.1938</v>
+        <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>0.2571</v>
+        <v>0</v>
       </c>
       <c r="O86" t="n">
-        <v>0.555</v>
+        <v>0</v>
       </c>
       <c r="P86"/>
       <c r="Q86"/>
@@ -5119,31 +5119,31 @@
       <c r="N87"/>
       <c r="O87"/>
       <c r="P87" t="n">
-        <v>0.3901</v>
+        <v>-0.0876</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.3298</v>
+        <v>-0.0942</v>
       </c>
       <c r="R87" t="n">
-        <v>0.2609</v>
+        <v>-0.1018</v>
       </c>
       <c r="S87" t="n">
-        <v>0.1757</v>
+        <v>-0.1151</v>
       </c>
       <c r="T87" t="n">
-        <v>0.1482</v>
+        <v>-0.1102</v>
       </c>
       <c r="U87" t="n">
-        <v>0.1063</v>
+        <v>-0.0977</v>
       </c>
       <c r="V87" t="n">
-        <v>0.0469</v>
+        <v>-0.0843</v>
       </c>
       <c r="W87" t="n">
-        <v>0.1676</v>
+        <v>-0.0689</v>
       </c>
       <c r="X87" t="n">
-        <v>-4.4752</v>
+        <v>-1.1317</v>
       </c>
     </row>
     <row r="88">

--- a/results/05-2024/contributions-comparison-05-2024.xlsx
+++ b/results/05-2024/contributions-comparison-05-2024.xlsx
@@ -1038,25 +1038,25 @@
         <v>-0.0708</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1067</v>
+        <v>0.0969</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.0452</v>
+        <v>-0.045</v>
       </c>
       <c r="K10" t="n">
-        <v>0.295</v>
+        <v>0.2751</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2573</v>
+        <v>0.2384</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3088</v>
+        <v>0.5026</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2796</v>
+        <v>0.0985</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1561</v>
+        <v>0.087</v>
       </c>
       <c r="P10"/>
       <c r="Q10"/>
@@ -1091,31 +1091,31 @@
       <c r="N11"/>
       <c r="O11"/>
       <c r="P11" t="n">
-        <v>-0.1221</v>
+        <v>0.0027</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.2406</v>
+        <v>-0.0924</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.226</v>
+        <v>-0.0876</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.2871</v>
+        <v>-0.1505</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.2221</v>
+        <v>-0.0734</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.1724</v>
+        <v>-0.0804</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.035</v>
+        <v>-0.0891</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.1145</v>
+        <v>-0.0788</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.4321</v>
+        <v>-1.0948</v>
       </c>
     </row>
     <row r="12">
@@ -2098,25 +2098,25 @@
         <v>-4.5905</v>
       </c>
       <c r="I30" t="n">
-        <v>-2.2874</v>
+        <v>-2.2972</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.5607</v>
+        <v>-0.5605</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0638</v>
+        <v>0.0439</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.1884</v>
+        <v>-0.2074</v>
       </c>
       <c r="M30" t="n">
-        <v>0.5287</v>
+        <v>0.7225</v>
       </c>
       <c r="N30" t="n">
-        <v>0.2312</v>
+        <v>0.0501</v>
       </c>
       <c r="O30" t="n">
-        <v>-0.2545</v>
+        <v>-0.3236</v>
       </c>
       <c r="P30"/>
       <c r="Q30"/>
@@ -2151,31 +2151,31 @@
       <c r="N31"/>
       <c r="O31"/>
       <c r="P31" t="n">
-        <v>-0.7614</v>
+        <v>-0.6367</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.4572</v>
+        <v>-0.309</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.2208</v>
+        <v>-0.0824</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.8013</v>
+        <v>-0.6647</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.9297</v>
+        <v>-0.7811</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.6619</v>
+        <v>-0.5699</v>
       </c>
       <c r="V31" t="n">
-        <v>-0.4547</v>
+        <v>-0.5089</v>
       </c>
       <c r="W31" t="n">
-        <v>-0.1598</v>
+        <v>-0.124</v>
       </c>
       <c r="X31" t="n">
-        <v>-71.7788</v>
+        <v>-72.4415</v>
       </c>
     </row>
     <row r="32">
@@ -4006,25 +4006,25 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>-0.0098</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>-0.0199</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>-0.019</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>0.1938</v>
       </c>
       <c r="N66" t="n">
-        <v>0</v>
+        <v>-0.1811</v>
       </c>
       <c r="O66" t="n">
-        <v>0</v>
+        <v>-0.0691</v>
       </c>
       <c r="P66"/>
       <c r="Q66"/>
@@ -4059,31 +4059,31 @@
       <c r="N67"/>
       <c r="O67"/>
       <c r="P67" t="n">
-        <v>-0.0018</v>
+        <v>0.1229</v>
       </c>
       <c r="Q67" t="n">
-        <v>-0.0024</v>
+        <v>0.1457</v>
       </c>
       <c r="R67" t="n">
-        <v>-0.0025</v>
+        <v>0.1359</v>
       </c>
       <c r="S67" t="n">
-        <v>-0.0032</v>
+        <v>0.1334</v>
       </c>
       <c r="T67" t="n">
-        <v>-0.0026</v>
+        <v>0.146</v>
       </c>
       <c r="U67" t="n">
-        <v>-0.0017</v>
+        <v>0.0903</v>
       </c>
       <c r="V67" t="n">
-        <v>0.0005</v>
+        <v>-0.0537</v>
       </c>
       <c r="W67" t="n">
-        <v>-0.0004</v>
+        <v>0.0354</v>
       </c>
       <c r="X67" t="n">
-        <v>-0.0049</v>
+        <v>-0.6676</v>
       </c>
     </row>
     <row r="68">
@@ -5066,25 +5066,25 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>-0.0098</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>-0.0199</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>-0.019</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
+        <v>0.1938</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>-0.1811</v>
       </c>
       <c r="O86" t="n">
-        <v>0</v>
+        <v>-0.0691</v>
       </c>
       <c r="P86"/>
       <c r="Q86"/>
@@ -5119,31 +5119,31 @@
       <c r="N87"/>
       <c r="O87"/>
       <c r="P87" t="n">
-        <v>-0.0876</v>
+        <v>0.0371</v>
       </c>
       <c r="Q87" t="n">
-        <v>-0.0942</v>
+        <v>0.054</v>
       </c>
       <c r="R87" t="n">
-        <v>-0.1018</v>
+        <v>0.0367</v>
       </c>
       <c r="S87" t="n">
-        <v>-0.1151</v>
+        <v>0.0215</v>
       </c>
       <c r="T87" t="n">
-        <v>-0.1102</v>
+        <v>0.0384</v>
       </c>
       <c r="U87" t="n">
-        <v>-0.0977</v>
+        <v>-0.0057</v>
       </c>
       <c r="V87" t="n">
-        <v>-0.0843</v>
+        <v>-0.1384</v>
       </c>
       <c r="W87" t="n">
-        <v>-0.0689</v>
+        <v>-0.0331</v>
       </c>
       <c r="X87" t="n">
-        <v>-1.1317</v>
+        <v>-1.7944</v>
       </c>
     </row>
     <row r="88">

--- a/results/05-2024/contributions-comparison-05-2024.xlsx
+++ b/results/05-2024/contributions-comparison-05-2024.xlsx
@@ -1038,25 +1038,25 @@
         <v>-0.0708</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0969</v>
+        <v>0.1067</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.045</v>
+        <v>-0.0452</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2751</v>
+        <v>0.295</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2384</v>
+        <v>0.2573</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5026</v>
+        <v>0.3088</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0985</v>
+        <v>0.2796</v>
       </c>
       <c r="O10" t="n">
-        <v>0.087</v>
+        <v>0.1561</v>
       </c>
       <c r="P10"/>
       <c r="Q10"/>
@@ -1091,31 +1091,31 @@
       <c r="N11"/>
       <c r="O11"/>
       <c r="P11" t="n">
-        <v>0.0027</v>
+        <v>-0.0145</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.0924</v>
+        <v>-0.0203</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.0876</v>
+        <v>-0.0138</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.1505</v>
+        <v>-0.0083</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.0734</v>
+        <v>0.0126</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.0804</v>
+        <v>0.0046</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.0891</v>
+        <v>-0.005</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.0788</v>
+        <v>-0.0105</v>
       </c>
       <c r="X11" t="n">
-        <v>-1.0948</v>
+        <v>-1.7941</v>
       </c>
     </row>
     <row r="12">
@@ -2098,25 +2098,25 @@
         <v>-4.5905</v>
       </c>
       <c r="I30" t="n">
-        <v>-2.2972</v>
+        <v>-2.2874</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.5605</v>
+        <v>-0.5607</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0439</v>
+        <v>0.0638</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.2074</v>
+        <v>-0.1884</v>
       </c>
       <c r="M30" t="n">
-        <v>0.7225</v>
+        <v>0.5287</v>
       </c>
       <c r="N30" t="n">
-        <v>0.0501</v>
+        <v>0.2312</v>
       </c>
       <c r="O30" t="n">
-        <v>-0.3236</v>
+        <v>-0.2545</v>
       </c>
       <c r="P30"/>
       <c r="Q30"/>
@@ -2151,31 +2151,31 @@
       <c r="N31"/>
       <c r="O31"/>
       <c r="P31" t="n">
-        <v>-0.6367</v>
+        <v>-0.6538</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.309</v>
+        <v>-0.2369</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.0824</v>
+        <v>-0.0086</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.6647</v>
+        <v>-0.5226</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.7811</v>
+        <v>-0.6951</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.5699</v>
+        <v>-0.4849</v>
       </c>
       <c r="V31" t="n">
-        <v>-0.5089</v>
+        <v>-0.4247</v>
       </c>
       <c r="W31" t="n">
-        <v>-0.124</v>
+        <v>-0.0558</v>
       </c>
       <c r="X31" t="n">
-        <v>-72.4415</v>
+        <v>-73.1408</v>
       </c>
     </row>
     <row r="32">
@@ -4006,25 +4006,25 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.0098</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>-0.0199</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>-0.019</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>0.1938</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>-0.1811</v>
+        <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>-0.0691</v>
+        <v>0</v>
       </c>
       <c r="P66"/>
       <c r="Q66"/>
@@ -4059,31 +4059,31 @@
       <c r="N67"/>
       <c r="O67"/>
       <c r="P67" t="n">
-        <v>0.1229</v>
+        <v>0.1058</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.1457</v>
+        <v>0.2178</v>
       </c>
       <c r="R67" t="n">
-        <v>0.1359</v>
+        <v>0.2097</v>
       </c>
       <c r="S67" t="n">
-        <v>0.1334</v>
+        <v>0.2755</v>
       </c>
       <c r="T67" t="n">
-        <v>0.146</v>
+        <v>0.2321</v>
       </c>
       <c r="U67" t="n">
-        <v>0.0903</v>
+        <v>0.1752</v>
       </c>
       <c r="V67" t="n">
-        <v>-0.0537</v>
+        <v>0.0305</v>
       </c>
       <c r="W67" t="n">
-        <v>0.0354</v>
+        <v>0.1036</v>
       </c>
       <c r="X67" t="n">
-        <v>-0.6676</v>
+        <v>-1.3669</v>
       </c>
     </row>
     <row r="68">
@@ -5066,25 +5066,25 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>-0.0098</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>-0.0199</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>-0.019</v>
+        <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>0.1938</v>
+        <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>-0.1811</v>
+        <v>0</v>
       </c>
       <c r="O86" t="n">
-        <v>-0.0691</v>
+        <v>0</v>
       </c>
       <c r="P86"/>
       <c r="Q86"/>
@@ -5119,31 +5119,31 @@
       <c r="N87"/>
       <c r="O87"/>
       <c r="P87" t="n">
-        <v>0.0371</v>
+        <v>0.02</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.054</v>
+        <v>0.1261</v>
       </c>
       <c r="R87" t="n">
-        <v>0.0367</v>
+        <v>0.1105</v>
       </c>
       <c r="S87" t="n">
-        <v>0.0215</v>
+        <v>0.1636</v>
       </c>
       <c r="T87" t="n">
-        <v>0.0384</v>
+        <v>0.1244</v>
       </c>
       <c r="U87" t="n">
-        <v>-0.0057</v>
+        <v>0.0793</v>
       </c>
       <c r="V87" t="n">
-        <v>-0.1384</v>
+        <v>-0.0543</v>
       </c>
       <c r="W87" t="n">
-        <v>-0.0331</v>
+        <v>0.0352</v>
       </c>
       <c r="X87" t="n">
-        <v>-1.7944</v>
+        <v>-2.4937</v>
       </c>
     </row>
     <row r="88">

--- a/results/05-2024/contributions-comparison-05-2024.xlsx
+++ b/results/05-2024/contributions-comparison-05-2024.xlsx
@@ -632,7 +632,7 @@
         <v>0.0044</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0084</v>
+        <v>0.0082</v>
       </c>
       <c r="P2"/>
       <c r="Q2"/>
@@ -688,7 +688,7 @@
         <v>0.0053</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>0.0053</v>
       </c>
       <c r="X3" t="n">
         <v>0.0051</v>
@@ -773,31 +773,31 @@
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5" t="n">
-        <v>311.58</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>313.653</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>315.562</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>317.539</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>319.487</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>321.422</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>323.328</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>325.189</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>327.004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -882,7 +882,7 @@
         <v>-0.0177</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.0671</v>
+        <v>-0.0672</v>
       </c>
       <c r="R7" t="n">
         <v>-0.0292</v>
@@ -891,7 +891,7 @@
         <v>-0.0283</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.0267</v>
+        <v>-0.0268</v>
       </c>
       <c r="U7" t="n">
         <v>-0.026</v>
@@ -950,7 +950,7 @@
         <v>0.1538</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.2668</v>
+        <v>-0.3011</v>
       </c>
       <c r="P8"/>
       <c r="Q8"/>
@@ -985,31 +985,31 @@
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9" t="n">
-        <v>-0.3996</v>
+        <v>-0.3991</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.1087</v>
+        <v>-0.1106</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.1253</v>
+        <v>-0.1223</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.4667</v>
+        <v>-0.4687</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.3414</v>
+        <v>-0.3419</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.1712</v>
+        <v>-0.1742</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.2057</v>
+        <v>-0.2067</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.1419</v>
+        <v>-0.1357</v>
       </c>
       <c r="X9" t="n">
-        <v>-31.9196</v>
+        <v>-32.136</v>
       </c>
     </row>
     <row r="10">
@@ -1056,7 +1056,7 @@
         <v>0.2796</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1561</v>
+        <v>0.1478</v>
       </c>
       <c r="P10"/>
       <c r="Q10"/>
@@ -1091,31 +1091,31 @@
       <c r="N11"/>
       <c r="O11"/>
       <c r="P11" t="n">
-        <v>-0.1221</v>
+        <v>-0.023</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.2406</v>
+        <v>-0.0289</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.226</v>
+        <v>-0.0223</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.2871</v>
+        <v>-0.0168</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.2221</v>
+        <v>0.0041</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.1724</v>
+        <v>-0.0039</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.035</v>
+        <v>-0.0134</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.1145</v>
+        <v>-0.0281</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.4321</v>
+        <v>-1.794</v>
       </c>
     </row>
     <row r="12">
@@ -1162,7 +1162,7 @@
         <v>-0.1622</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.2224</v>
+        <v>-0.2068</v>
       </c>
       <c r="P12"/>
       <c r="Q12"/>
@@ -1197,31 +1197,31 @@
       <c r="N13"/>
       <c r="O13"/>
       <c r="P13" t="n">
-        <v>-0.1893</v>
+        <v>-0.167</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0271</v>
+        <v>0.0162</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.0196</v>
+        <v>-0.0276</v>
       </c>
       <c r="S13" t="n">
-        <v>0.031</v>
+        <v>0.0109</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0205</v>
+        <v>-0.0032</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0081</v>
+        <v>0.0192</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0252</v>
+        <v>0.0327</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0701</v>
+        <v>0.0471</v>
       </c>
       <c r="X13" t="n">
-        <v>-5.1218</v>
+        <v>-5.1508</v>
       </c>
     </row>
     <row r="14">
@@ -1265,10 +1265,10 @@
         <v>0.3669</v>
       </c>
       <c r="N14" t="n">
-        <v>0.3659</v>
+        <v>0.4046</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2014</v>
+        <v>0.303</v>
       </c>
       <c r="P14"/>
       <c r="Q14"/>
@@ -1303,31 +1303,31 @@
       <c r="N15"/>
       <c r="O15"/>
       <c r="P15" t="n">
-        <v>0.119</v>
+        <v>0.2001</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.2924</v>
+        <v>0.3412</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2333</v>
+        <v>0.2815</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.1073</v>
+        <v>-0.0589</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.1214</v>
+        <v>-0.0737</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.0895</v>
+        <v>-0.0432</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.0792</v>
+        <v>-0.0514</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.0253</v>
+        <v>0.0313</v>
       </c>
       <c r="X15" t="n">
-        <v>7.6169</v>
+        <v>7.5608</v>
       </c>
     </row>
     <row r="16">
@@ -1409,10 +1409,10 @@
       <c r="N17"/>
       <c r="O17"/>
       <c r="P17" t="n">
-        <v>-0.0357</v>
+        <v>-0.0358</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.0345</v>
+        <v>-0.0346</v>
       </c>
       <c r="R17" t="n">
         <v>-0.0226</v>
@@ -1539,7 +1539,7 @@
         <v>-0.007</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.0064</v>
+        <v>-0.0065</v>
       </c>
     </row>
     <row r="20">
@@ -1586,7 +1586,7 @@
         <v>0.0098</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0101</v>
+        <v>0.0112</v>
       </c>
       <c r="P20"/>
       <c r="Q20"/>
@@ -1642,7 +1642,7 @@
         <v>0.0061</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>0.0054</v>
       </c>
       <c r="X21" t="n">
         <v>0.0058</v>
@@ -1692,7 +1692,7 @@
         <v>-0.1481</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.0659</v>
+        <v>-0.0558</v>
       </c>
       <c r="P22"/>
       <c r="Q22"/>
@@ -1727,31 +1727,31 @@
       <c r="N23"/>
       <c r="O23"/>
       <c r="P23" t="n">
-        <v>0.0164</v>
+        <v>0.0263</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0505</v>
+        <v>0.0603</v>
       </c>
       <c r="R23" t="n">
-        <v>0.0466</v>
+        <v>0.0562</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.0919</v>
+        <v>-0.0922</v>
       </c>
       <c r="T23" t="n">
-        <v>-0.0868</v>
+        <v>-0.0872</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.0857</v>
+        <v>-0.086</v>
       </c>
       <c r="V23" t="n">
-        <v>-0.14</v>
+        <v>-0.1404</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.0987</v>
+        <v>-0.1321</v>
       </c>
       <c r="X23" t="n">
-        <v>-6.4603</v>
+        <v>-6.5083</v>
       </c>
     </row>
     <row r="24">
@@ -1833,10 +1833,10 @@
       <c r="N25"/>
       <c r="O25"/>
       <c r="P25" t="n">
-        <v>-0.0932</v>
+        <v>-0.0933</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.0551</v>
+        <v>-0.0552</v>
       </c>
       <c r="R25" t="n">
         <v>-0.0301</v>
@@ -1854,7 +1854,7 @@
         <v>0.0001</v>
       </c>
       <c r="W25" t="n">
-        <v>-0.0001</v>
+        <v>-0.0002</v>
       </c>
       <c r="X25" t="n">
         <v>-0.0073</v>
@@ -1904,7 +1904,7 @@
         <v>-0.1408</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.1042</v>
+        <v>-0.1049</v>
       </c>
       <c r="P26"/>
       <c r="Q26"/>
@@ -1939,28 +1939,28 @@
       <c r="N27"/>
       <c r="O27"/>
       <c r="P27" t="n">
-        <v>-0.2921</v>
+        <v>-0.293</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.2639</v>
+        <v>-0.2647</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.1069</v>
+        <v>-0.1076</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.059</v>
+        <v>-0.0595</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.0941</v>
+        <v>-0.0946</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.07</v>
+        <v>-0.0705</v>
       </c>
       <c r="V27" t="n">
-        <v>-0.0316</v>
+        <v>-0.0321</v>
       </c>
       <c r="W27" t="n">
-        <v>-0.0122</v>
+        <v>-0.0129</v>
       </c>
       <c r="X27" t="n">
         <v>-0.0741</v>
@@ -2113,10 +2113,10 @@
         <v>0.5287</v>
       </c>
       <c r="N30" t="n">
-        <v>0.2312</v>
+        <v>0.2699</v>
       </c>
       <c r="O30" t="n">
-        <v>-0.2545</v>
+        <v>-0.0284</v>
       </c>
       <c r="P30"/>
       <c r="Q30"/>
@@ -2151,31 +2151,31 @@
       <c r="N31"/>
       <c r="O31"/>
       <c r="P31" t="n">
-        <v>-0.7614</v>
+        <v>-0.4618</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.4572</v>
+        <v>-0.1177</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.2208</v>
+        <v>0.118</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.8013</v>
+        <v>-0.4902</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.9297</v>
+        <v>-0.6694</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.6619</v>
+        <v>-0.4286</v>
       </c>
       <c r="V31" t="n">
-        <v>-0.4547</v>
+        <v>-0.391</v>
       </c>
       <c r="W31" t="n">
-        <v>-0.1598</v>
+        <v>-0.2829</v>
       </c>
       <c r="X31" t="n">
-        <v>-71.7788</v>
+        <v>-73.7151</v>
       </c>
     </row>
     <row r="32">
@@ -2222,7 +2222,7 @@
         <v>27957</v>
       </c>
       <c r="O32" t="n">
-        <v>28284.5</v>
+        <v>28255.9</v>
       </c>
       <c r="P32"/>
       <c r="Q32"/>
@@ -2257,31 +2257,31 @@
       <c r="N33"/>
       <c r="O33"/>
       <c r="P33" t="n">
-        <v>28521.5094</v>
+        <v>28492.6697</v>
       </c>
       <c r="Q33" t="n">
-        <v>28783.7326</v>
+        <v>28754.6278</v>
       </c>
       <c r="R33" t="n">
-        <v>29054.2258</v>
+        <v>29024.8475</v>
       </c>
       <c r="S33" t="n">
-        <v>29343.8816</v>
+        <v>29314.2104</v>
       </c>
       <c r="T33" t="n">
-        <v>29655.9272</v>
+        <v>29625.9404</v>
       </c>
       <c r="U33" t="n">
-        <v>29972.2086</v>
+        <v>29941.9021</v>
       </c>
       <c r="V33" t="n">
-        <v>30298.979</v>
+        <v>30268.3421</v>
       </c>
       <c r="W33" t="n">
-        <v>30607.7972</v>
+        <v>30576.848</v>
       </c>
       <c r="X33" t="n">
-        <v>30918.9351</v>
+        <v>30887.6713</v>
       </c>
     </row>
     <row r="34">
@@ -2328,7 +2328,7 @@
         <v>0.1455</v>
       </c>
       <c r="O34" t="n">
-        <v>-0.1094</v>
+        <v>-0.113</v>
       </c>
       <c r="P34"/>
       <c r="Q34"/>
@@ -2363,7 +2363,7 @@
       <c r="N35"/>
       <c r="O35"/>
       <c r="P35" t="n">
-        <v>-0.2191</v>
+        <v>-0.2194</v>
       </c>
       <c r="Q35" t="n">
         <v>-0.0194</v>
@@ -2372,22 +2372,22 @@
         <v>0.0066</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.3163</v>
+        <v>-0.3166</v>
       </c>
       <c r="T35" t="n">
-        <v>-0.2</v>
+        <v>-0.2002</v>
       </c>
       <c r="U35" t="n">
         <v>-0.0447</v>
       </c>
       <c r="V35" t="n">
-        <v>-0.0961</v>
+        <v>-0.0962</v>
       </c>
       <c r="W35" t="n">
-        <v>0.0004</v>
+        <v>-0.0431</v>
       </c>
       <c r="X35" t="n">
-        <v>-6.416</v>
+        <v>-6.4225</v>
       </c>
     </row>
     <row r="36">
@@ -2575,19 +2575,19 @@
       <c r="N39"/>
       <c r="O39"/>
       <c r="P39" t="n">
-        <v>-0.105</v>
+        <v>-0.1051</v>
       </c>
       <c r="Q39" t="n">
-        <v>-0.1023</v>
+        <v>-0.1024</v>
       </c>
       <c r="R39" t="n">
-        <v>-0.1004</v>
+        <v>-0.1005</v>
       </c>
       <c r="S39" t="n">
-        <v>-0.0976</v>
+        <v>-0.0977</v>
       </c>
       <c r="T39" t="n">
-        <v>-0.0948</v>
+        <v>-0.0949</v>
       </c>
       <c r="U39" t="n">
         <v>-0.001</v>
@@ -2752,7 +2752,7 @@
         <v>0.2484</v>
       </c>
       <c r="O42" t="n">
-        <v>0.0936</v>
+        <v>0.1548</v>
       </c>
       <c r="P42"/>
       <c r="Q42"/>
@@ -2787,31 +2787,31 @@
       <c r="N43"/>
       <c r="O43"/>
       <c r="P43" t="n">
-        <v>0.1117</v>
+        <v>0.1121</v>
       </c>
       <c r="Q43" t="n">
-        <v>-0.09</v>
+        <v>-0.0901</v>
       </c>
       <c r="R43" t="n">
-        <v>-0.109</v>
+        <v>-0.1096</v>
       </c>
       <c r="S43" t="n">
         <v>0.1891</v>
       </c>
       <c r="T43" t="n">
-        <v>0.0772</v>
+        <v>0.0766</v>
       </c>
       <c r="U43" t="n">
-        <v>-0.0737</v>
+        <v>-0.0728</v>
       </c>
       <c r="V43" t="n">
-        <v>-0.0259</v>
+        <v>-0.0265</v>
       </c>
       <c r="W43" t="n">
-        <v>0.157</v>
+        <v>-0.0725</v>
       </c>
       <c r="X43" t="n">
-        <v>-37.7125</v>
+        <v>-37.8553</v>
       </c>
     </row>
     <row r="44">
@@ -2858,7 +2858,7 @@
         <v>-0.027</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.02</v>
+        <v>-0.0239</v>
       </c>
       <c r="P44"/>
       <c r="Q44"/>
@@ -2893,31 +2893,31 @@
       <c r="N45"/>
       <c r="O45"/>
       <c r="P45" t="n">
-        <v>-0.016</v>
+        <v>-0.0166</v>
       </c>
       <c r="Q45" t="n">
-        <v>-0.0083</v>
+        <v>-0.009</v>
       </c>
       <c r="R45" t="n">
-        <v>0.0086</v>
+        <v>0.008</v>
       </c>
       <c r="S45" t="n">
-        <v>0.0231</v>
+        <v>0.0225</v>
       </c>
       <c r="T45" t="n">
-        <v>0.0026</v>
+        <v>0.002</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0028</v>
+        <v>0.0022</v>
       </c>
       <c r="V45" t="n">
-        <v>0.0081</v>
+        <v>0.0075</v>
       </c>
       <c r="W45" t="n">
-        <v>0.0127</v>
+        <v>0.0125</v>
       </c>
       <c r="X45" t="n">
-        <v>0.0747</v>
+        <v>0.0753</v>
       </c>
     </row>
     <row r="46">
@@ -2964,7 +2964,7 @@
         <v>0.0574</v>
       </c>
       <c r="O46" t="n">
-        <v>0.1087</v>
+        <v>0.1796</v>
       </c>
       <c r="P46"/>
       <c r="Q46"/>
@@ -2999,31 +2999,31 @@
       <c r="N47"/>
       <c r="O47"/>
       <c r="P47" t="n">
-        <v>0.0266</v>
+        <v>0.1009</v>
       </c>
       <c r="Q47" t="n">
-        <v>-0.0298</v>
+        <v>0.047</v>
       </c>
       <c r="R47" t="n">
-        <v>0.0945</v>
+        <v>0.1718</v>
       </c>
       <c r="S47" t="n">
-        <v>-0.0105</v>
+        <v>-0.0012</v>
       </c>
       <c r="T47" t="n">
-        <v>-0.0245</v>
+        <v>-0.0182</v>
       </c>
       <c r="U47" t="n">
-        <v>-0.0199</v>
+        <v>-0.0156</v>
       </c>
       <c r="V47" t="n">
-        <v>-0.012</v>
+        <v>-0.0086</v>
       </c>
       <c r="W47" t="n">
-        <v>0.0007</v>
+        <v>-0.0015</v>
       </c>
       <c r="X47" t="n">
-        <v>-0.9111</v>
+        <v>-0.9989</v>
       </c>
     </row>
     <row r="48">
@@ -3070,7 +3070,7 @@
         <v>0.1388</v>
       </c>
       <c r="O48" t="n">
-        <v>0.2383</v>
+        <v>0.2521</v>
       </c>
       <c r="P48"/>
       <c r="Q48"/>
@@ -3105,31 +3105,31 @@
       <c r="N49"/>
       <c r="O49"/>
       <c r="P49" t="n">
-        <v>0.2358</v>
+        <v>0.2497</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.1573</v>
+        <v>0.1642</v>
       </c>
       <c r="R49" t="n">
-        <v>0.1235</v>
+        <v>0.1303</v>
       </c>
       <c r="S49" t="n">
-        <v>0.0838</v>
+        <v>0.0905</v>
       </c>
       <c r="T49" t="n">
-        <v>0.011</v>
+        <v>0.0176</v>
       </c>
       <c r="U49" t="n">
-        <v>0.0411</v>
+        <v>0.0477</v>
       </c>
       <c r="V49" t="n">
-        <v>0.0515</v>
+        <v>0.0581</v>
       </c>
       <c r="W49" t="n">
-        <v>-0.0002</v>
+        <v>0.0202</v>
       </c>
       <c r="X49" t="n">
-        <v>3.9107</v>
+        <v>3.9202</v>
       </c>
     </row>
     <row r="50">
@@ -3176,7 +3176,7 @@
         <v>0.0016</v>
       </c>
       <c r="O50" t="n">
-        <v>0.009</v>
+        <v>0.0094</v>
       </c>
       <c r="P50"/>
       <c r="Q50"/>
@@ -3232,7 +3232,7 @@
         <v>0.0066</v>
       </c>
       <c r="W51" t="n">
-        <v>0</v>
+        <v>0.0068</v>
       </c>
       <c r="X51" t="n">
         <v>0.0067</v>
@@ -3494,7 +3494,7 @@
         <v>-0.0005</v>
       </c>
       <c r="O56" t="n">
-        <v>-0.0027</v>
+        <v>-0.003</v>
       </c>
       <c r="P56"/>
       <c r="Q56"/>
@@ -3529,16 +3529,16 @@
       <c r="N57"/>
       <c r="O57"/>
       <c r="P57" t="n">
-        <v>0.0043</v>
+        <v>0.0044</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.0059</v>
+        <v>0.006</v>
       </c>
       <c r="R57" t="n">
-        <v>0.0055</v>
+        <v>0.0056</v>
       </c>
       <c r="S57" t="n">
-        <v>0.006</v>
+        <v>0.0061</v>
       </c>
       <c r="T57" t="n">
         <v>0.0061</v>
@@ -3550,10 +3550,10 @@
         <v>0.0021</v>
       </c>
       <c r="W57" t="n">
-        <v>0.0009</v>
+        <v>0.0006</v>
       </c>
       <c r="X57" t="n">
-        <v>-0.0727</v>
+        <v>-0.0731</v>
       </c>
     </row>
     <row r="58">
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="P58"/>
       <c r="Q58"/>
@@ -3656,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="W59" t="n">
-        <v>0</v>
+        <v>0.0053</v>
       </c>
       <c r="X59" t="n">
         <v>0</v>
@@ -3741,31 +3741,31 @@
       <c r="N61"/>
       <c r="O61"/>
       <c r="P61" t="n">
-        <v>-3.775</v>
+        <v>-315.355</v>
       </c>
       <c r="Q61" t="n">
-        <v>-3.466</v>
+        <v>-317.119</v>
       </c>
       <c r="R61" t="n">
-        <v>-3.24</v>
+        <v>-318.802</v>
       </c>
       <c r="S61" t="n">
-        <v>-2.995</v>
+        <v>-320.534</v>
       </c>
       <c r="T61" t="n">
-        <v>-2.742</v>
+        <v>-322.229</v>
       </c>
       <c r="U61" t="n">
-        <v>-2.485</v>
+        <v>-323.907</v>
       </c>
       <c r="V61" t="n">
-        <v>-2.262</v>
+        <v>-325.59</v>
       </c>
       <c r="W61" t="n">
-        <v>-2.042</v>
+        <v>-327.231</v>
       </c>
       <c r="X61" t="n">
-        <v>-1.864</v>
+        <v>-328.868</v>
       </c>
     </row>
     <row r="62">
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>-0.0002</v>
+        <v>-0.0003</v>
       </c>
       <c r="R63" t="n">
         <v>-0.0002</v>
@@ -3862,7 +3862,7 @@
         <v>-0.0003</v>
       </c>
       <c r="U63" t="n">
-        <v>-0.0003</v>
+        <v>-0.0004</v>
       </c>
       <c r="V63" t="n">
         <v>-0.0001</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>0</v>
+        <v>-0.0343</v>
       </c>
       <c r="P64"/>
       <c r="Q64"/>
@@ -3953,31 +3953,31 @@
       <c r="N65"/>
       <c r="O65"/>
       <c r="P65" t="n">
-        <v>-0.0398</v>
+        <v>-0.0393</v>
       </c>
       <c r="Q65" t="n">
-        <v>-0.0413</v>
+        <v>-0.0433</v>
       </c>
       <c r="R65" t="n">
-        <v>-0.0415</v>
+        <v>-0.0386</v>
       </c>
       <c r="S65" t="n">
-        <v>-0.0446</v>
+        <v>-0.0466</v>
       </c>
       <c r="T65" t="n">
-        <v>-0.0431</v>
+        <v>-0.0437</v>
       </c>
       <c r="U65" t="n">
-        <v>-0.0398</v>
+        <v>-0.0428</v>
       </c>
       <c r="V65" t="n">
-        <v>-0.0387</v>
+        <v>-0.0397</v>
       </c>
       <c r="W65" t="n">
-        <v>-0.0359</v>
+        <v>-0.0297</v>
       </c>
       <c r="X65" t="n">
-        <v>-0.5148</v>
+        <v>-0.7311</v>
       </c>
     </row>
     <row r="66">
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>0</v>
+        <v>-0.0082</v>
       </c>
       <c r="P66"/>
       <c r="Q66"/>
@@ -4059,31 +4059,31 @@
       <c r="N67"/>
       <c r="O67"/>
       <c r="P67" t="n">
-        <v>-0.0018</v>
+        <v>0.0973</v>
       </c>
       <c r="Q67" t="n">
-        <v>-0.0024</v>
+        <v>0.2093</v>
       </c>
       <c r="R67" t="n">
-        <v>-0.0025</v>
+        <v>0.2012</v>
       </c>
       <c r="S67" t="n">
-        <v>-0.0032</v>
+        <v>0.267</v>
       </c>
       <c r="T67" t="n">
-        <v>-0.0026</v>
+        <v>0.2236</v>
       </c>
       <c r="U67" t="n">
-        <v>-0.0017</v>
+        <v>0.1668</v>
       </c>
       <c r="V67" t="n">
-        <v>0.0005</v>
+        <v>0.022</v>
       </c>
       <c r="W67" t="n">
-        <v>-0.0004</v>
+        <v>0.086</v>
       </c>
       <c r="X67" t="n">
-        <v>-0.0049</v>
+        <v>-1.3667</v>
       </c>
     </row>
     <row r="68">
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>0</v>
+        <v>0.0157</v>
       </c>
       <c r="P68"/>
       <c r="Q68"/>
@@ -4165,31 +4165,31 @@
       <c r="N69"/>
       <c r="O69"/>
       <c r="P69" t="n">
-        <v>-0.006</v>
+        <v>0.0162</v>
       </c>
       <c r="Q69" t="n">
-        <v>-0.0121</v>
+        <v>-0.023</v>
       </c>
       <c r="R69" t="n">
-        <v>-0.0185</v>
+        <v>-0.0265</v>
       </c>
       <c r="S69" t="n">
-        <v>-0.0241</v>
+        <v>-0.0442</v>
       </c>
       <c r="T69" t="n">
-        <v>-0.0242</v>
+        <v>-0.048</v>
       </c>
       <c r="U69" t="n">
-        <v>-0.0241</v>
+        <v>-0.0129</v>
       </c>
       <c r="V69" t="n">
-        <v>-0.0232</v>
+        <v>-0.0158</v>
       </c>
       <c r="W69" t="n">
-        <v>-0.0218</v>
+        <v>-0.0449</v>
       </c>
       <c r="X69" t="n">
-        <v>-0.0976</v>
+        <v>-0.1266</v>
       </c>
     </row>
     <row r="70">
@@ -4233,10 +4233,10 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>0</v>
+        <v>0.0388</v>
       </c>
       <c r="O70" t="n">
-        <v>0</v>
+        <v>0.1016</v>
       </c>
       <c r="P70"/>
       <c r="Q70"/>
@@ -4271,31 +4271,31 @@
       <c r="N71"/>
       <c r="O71"/>
       <c r="P71" t="n">
-        <v>0.0091</v>
+        <v>0.0901</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.0194</v>
+        <v>0.0683</v>
       </c>
       <c r="R71" t="n">
-        <v>0.0246</v>
+        <v>0.0728</v>
       </c>
       <c r="S71" t="n">
-        <v>0.0265</v>
+        <v>0.075</v>
       </c>
       <c r="T71" t="n">
-        <v>0.0303</v>
+        <v>0.078</v>
       </c>
       <c r="U71" t="n">
-        <v>0.0346</v>
+        <v>0.0809</v>
       </c>
       <c r="V71" t="n">
-        <v>0.0382</v>
+        <v>0.0659</v>
       </c>
       <c r="W71" t="n">
-        <v>0.0421</v>
+        <v>0.0987</v>
       </c>
       <c r="X71" t="n">
-        <v>0.154</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="72">
@@ -4380,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>-0.0001</v>
+        <v>-0.0002</v>
       </c>
       <c r="R73" t="n">
         <v>-0.0002</v>
@@ -4483,7 +4483,7 @@
       <c r="N75"/>
       <c r="O75"/>
       <c r="P75" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="Q75" t="n">
         <v>-0.0002</v>
@@ -4498,10 +4498,10 @@
         <v>-0.0002</v>
       </c>
       <c r="U75" t="n">
-        <v>-0.0001</v>
+        <v>-0.0002</v>
       </c>
       <c r="V75" t="n">
-        <v>-0.0001</v>
+        <v>-0.0002</v>
       </c>
       <c r="W75" t="n">
         <v>-0.0001</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
       <c r="P76"/>
       <c r="Q76"/>
@@ -4610,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="W77" t="n">
-        <v>0</v>
+        <v>0.0054</v>
       </c>
       <c r="X77" t="n">
         <v>0.0004</v>
@@ -4660,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>0</v>
+        <v>0.0101</v>
       </c>
       <c r="P78"/>
       <c r="Q78"/>
@@ -4695,31 +4695,31 @@
       <c r="N79"/>
       <c r="O79"/>
       <c r="P79" t="n">
-        <v>-0.0078</v>
+        <v>0.0021</v>
       </c>
       <c r="Q79" t="n">
-        <v>-0.0156</v>
+        <v>-0.0059</v>
       </c>
       <c r="R79" t="n">
-        <v>-0.0233</v>
+        <v>-0.0137</v>
       </c>
       <c r="S79" t="n">
+        <v>-0.0323</v>
+      </c>
+      <c r="T79" t="n">
+        <v>-0.0325</v>
+      </c>
+      <c r="U79" t="n">
         <v>-0.032</v>
       </c>
-      <c r="T79" t="n">
+      <c r="V79" t="n">
         <v>-0.0321</v>
       </c>
-      <c r="U79" t="n">
-        <v>-0.0317</v>
-      </c>
-      <c r="V79" t="n">
-        <v>-0.0317</v>
-      </c>
       <c r="W79" t="n">
-        <v>-0.03</v>
+        <v>-0.0634</v>
       </c>
       <c r="X79" t="n">
-        <v>-0.1228</v>
+        <v>-0.1708</v>
       </c>
     </row>
     <row r="80">
@@ -4801,10 +4801,10 @@
       <c r="N81"/>
       <c r="O81"/>
       <c r="P81" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="Q81" t="n">
-        <v>-0.0002</v>
+        <v>-0.0003</v>
       </c>
       <c r="R81" t="n">
         <v>-0.0002</v>
@@ -4822,10 +4822,10 @@
         <v>0</v>
       </c>
       <c r="W81" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="X81" t="n">
-        <v>-0.0001</v>
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="82">
@@ -4872,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>0</v>
+        <v>-0.0007</v>
       </c>
       <c r="P82"/>
       <c r="Q82"/>
@@ -4907,28 +4907,28 @@
       <c r="N83"/>
       <c r="O83"/>
       <c r="P83" t="n">
-        <v>-0.0001</v>
+        <v>-0.001</v>
       </c>
       <c r="Q83" t="n">
-        <v>-0.0011</v>
+        <v>-0.0019</v>
       </c>
       <c r="R83" t="n">
-        <v>-0.0009</v>
+        <v>-0.0015</v>
       </c>
       <c r="S83" t="n">
-        <v>-0.0008</v>
+        <v>-0.0013</v>
       </c>
       <c r="T83" t="n">
-        <v>-0.0014</v>
+        <v>-0.0019</v>
       </c>
       <c r="U83" t="n">
+        <v>-0.0018</v>
+      </c>
+      <c r="V83" t="n">
         <v>-0.0013</v>
       </c>
-      <c r="V83" t="n">
-        <v>-0.0009</v>
-      </c>
       <c r="W83" t="n">
-        <v>-0.0006</v>
+        <v>-0.0013</v>
       </c>
       <c r="X83" t="n">
         <v>-0.0016</v>
@@ -5081,10 +5081,10 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>0.0388</v>
       </c>
       <c r="O86" t="n">
-        <v>0</v>
+        <v>0.226</v>
       </c>
       <c r="P86"/>
       <c r="Q86"/>
@@ -5119,31 +5119,31 @@
       <c r="N87"/>
       <c r="O87"/>
       <c r="P87" t="n">
-        <v>-0.0876</v>
+        <v>0.2121</v>
       </c>
       <c r="Q87" t="n">
-        <v>-0.0942</v>
+        <v>0.2453</v>
       </c>
       <c r="R87" t="n">
-        <v>-0.1018</v>
+        <v>0.237</v>
       </c>
       <c r="S87" t="n">
-        <v>-0.1151</v>
+        <v>0.196</v>
       </c>
       <c r="T87" t="n">
-        <v>-0.1102</v>
+        <v>0.1501</v>
       </c>
       <c r="U87" t="n">
-        <v>-0.0977</v>
+        <v>0.1356</v>
       </c>
       <c r="V87" t="n">
-        <v>-0.0843</v>
+        <v>-0.0205</v>
       </c>
       <c r="W87" t="n">
-        <v>-0.0689</v>
+        <v>-0.192</v>
       </c>
       <c r="X87" t="n">
-        <v>-1.1317</v>
+        <v>-3.068</v>
       </c>
     </row>
     <row r="88">
@@ -5190,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>0</v>
+        <v>-28.6</v>
       </c>
       <c r="P88"/>
       <c r="Q88"/>
@@ -5225,31 +5225,31 @@
       <c r="N89"/>
       <c r="O89"/>
       <c r="P89" t="n">
-        <v>-100.9646</v>
+        <v>-129.8043</v>
       </c>
       <c r="Q89" t="n">
-        <v>-183.6044</v>
+        <v>-212.7092</v>
       </c>
       <c r="R89" t="n">
-        <v>-270.1862</v>
+        <v>-299.5645</v>
       </c>
       <c r="S89" t="n">
-        <v>-344.39</v>
+        <v>-374.0612</v>
       </c>
       <c r="T89" t="n">
-        <v>-387.5407</v>
+        <v>-417.5275</v>
       </c>
       <c r="U89" t="n">
-        <v>-421.4454</v>
+        <v>-451.7519</v>
       </c>
       <c r="V89" t="n">
-        <v>-432.3359</v>
+        <v>-462.9728</v>
       </c>
       <c r="W89" t="n">
-        <v>-461.3873</v>
+        <v>-492.3365</v>
       </c>
       <c r="X89" t="n">
-        <v>-493.0248</v>
+        <v>-524.2886</v>
       </c>
     </row>
     <row r="90">
@@ -5296,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>0</v>
+        <v>-0.0036</v>
       </c>
       <c r="P90"/>
       <c r="Q90"/>
@@ -5331,7 +5331,7 @@
       <c r="N91"/>
       <c r="O91"/>
       <c r="P91" t="n">
-        <v>-0.0086</v>
+        <v>-0.0088</v>
       </c>
       <c r="Q91" t="n">
         <v>-0.0087</v>
@@ -5340,10 +5340,10 @@
         <v>-0.0086</v>
       </c>
       <c r="S91" t="n">
-        <v>-0.0115</v>
+        <v>-0.0118</v>
       </c>
       <c r="T91" t="n">
-        <v>-0.0104</v>
+        <v>-0.0106</v>
       </c>
       <c r="U91" t="n">
         <v>-0.0082</v>
@@ -5352,10 +5352,10 @@
         <v>-0.0086</v>
       </c>
       <c r="W91" t="n">
-        <v>-0.0068</v>
+        <v>-0.0503</v>
       </c>
       <c r="X91" t="n">
-        <v>-0.1009</v>
+        <v>-0.1074</v>
       </c>
     </row>
     <row r="92">
@@ -5543,19 +5543,19 @@
       <c r="N95"/>
       <c r="O95"/>
       <c r="P95" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="Q95" t="n">
-        <v>-0.0004</v>
+        <v>-0.0005</v>
       </c>
       <c r="R95" t="n">
-        <v>-0.0006</v>
+        <v>-0.0007</v>
       </c>
       <c r="S95" t="n">
-        <v>-0.0009</v>
+        <v>-0.001</v>
       </c>
       <c r="T95" t="n">
-        <v>-0.0011</v>
+        <v>-0.0012</v>
       </c>
       <c r="U95" t="n">
         <v>0</v>
@@ -5720,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="O98" t="n">
-        <v>0</v>
+        <v>0.0612</v>
       </c>
       <c r="P98"/>
       <c r="Q98"/>
@@ -5755,31 +5755,31 @@
       <c r="N99"/>
       <c r="O99"/>
       <c r="P99" t="n">
-        <v>-0.044</v>
+        <v>-0.0437</v>
       </c>
       <c r="Q99" t="n">
-        <v>-0.0463</v>
+        <v>-0.0464</v>
       </c>
       <c r="R99" t="n">
-        <v>-0.0464</v>
+        <v>-0.0471</v>
       </c>
       <c r="S99" t="n">
         <v>-0.0435</v>
       </c>
       <c r="T99" t="n">
-        <v>-0.0439</v>
+        <v>-0.0445</v>
       </c>
       <c r="U99" t="n">
-        <v>-0.0446</v>
+        <v>-0.0437</v>
       </c>
       <c r="V99" t="n">
-        <v>-0.042</v>
+        <v>-0.0426</v>
       </c>
       <c r="W99" t="n">
-        <v>-0.0374</v>
+        <v>-0.2669</v>
       </c>
       <c r="X99" t="n">
-        <v>-0.5934</v>
+        <v>-0.7361</v>
       </c>
     </row>
     <row r="100">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="O100" t="n">
-        <v>0</v>
+        <v>-0.0039</v>
       </c>
       <c r="P100"/>
       <c r="Q100"/>
@@ -5861,31 +5861,31 @@
       <c r="N101"/>
       <c r="O101"/>
       <c r="P101" t="n">
+        <v>-0.0006</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>-0.0005</v>
+      </c>
+      <c r="R101" t="n">
+        <v>-0.0003</v>
+      </c>
+      <c r="S101" t="n">
+        <v>0</v>
+      </c>
+      <c r="T101" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="U101" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="V101" t="n">
         <v>0.0001</v>
       </c>
-      <c r="Q101" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="R101" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="S101" t="n">
+      <c r="W101" t="n">
         <v>0.0006</v>
       </c>
-      <c r="T101" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="U101" t="n">
-        <v>0.0006</v>
-      </c>
-      <c r="V101" t="n">
-        <v>0.0007</v>
-      </c>
-      <c r="W101" t="n">
-        <v>0.0008</v>
-      </c>
       <c r="X101" t="n">
-        <v>0.0018</v>
+        <v>0.0024</v>
       </c>
     </row>
     <row r="102">
@@ -5932,7 +5932,7 @@
         <v>0</v>
       </c>
       <c r="O102" t="n">
-        <v>0</v>
+        <v>0.071</v>
       </c>
       <c r="P102"/>
       <c r="Q102"/>
@@ -5967,31 +5967,31 @@
       <c r="N103"/>
       <c r="O103"/>
       <c r="P103" t="n">
-        <v>-0.0011</v>
+        <v>0.0733</v>
       </c>
       <c r="Q103" t="n">
-        <v>-0.0023</v>
+        <v>0.0745</v>
       </c>
       <c r="R103" t="n">
-        <v>-0.0027</v>
+        <v>0.0746</v>
       </c>
       <c r="S103" t="n">
-        <v>-0.0045</v>
+        <v>0.0048</v>
       </c>
       <c r="T103" t="n">
-        <v>-0.0047</v>
+        <v>0.0016</v>
       </c>
       <c r="U103" t="n">
-        <v>-0.0046</v>
+        <v>-0.0003</v>
       </c>
       <c r="V103" t="n">
-        <v>-0.0044</v>
+        <v>-0.0009</v>
       </c>
       <c r="W103" t="n">
-        <v>-0.004</v>
+        <v>-0.0062</v>
       </c>
       <c r="X103" t="n">
-        <v>-0.0173</v>
+        <v>-0.1052</v>
       </c>
     </row>
     <row r="104">
@@ -6038,7 +6038,7 @@
         <v>0</v>
       </c>
       <c r="O104" t="n">
-        <v>0</v>
+        <v>0.0137</v>
       </c>
       <c r="P104"/>
       <c r="Q104"/>
@@ -6073,31 +6073,31 @@
       <c r="N105"/>
       <c r="O105"/>
       <c r="P105" t="n">
-        <v>0.0046</v>
+        <v>0.0185</v>
       </c>
       <c r="Q105" t="n">
-        <v>0.01</v>
+        <v>0.0169</v>
       </c>
       <c r="R105" t="n">
-        <v>0.0126</v>
+        <v>0.0194</v>
       </c>
       <c r="S105" t="n">
-        <v>0.0149</v>
+        <v>0.0216</v>
       </c>
       <c r="T105" t="n">
-        <v>0.0164</v>
+        <v>0.023</v>
       </c>
       <c r="U105" t="n">
-        <v>0.0188</v>
+        <v>0.0254</v>
       </c>
       <c r="V105" t="n">
-        <v>0.0209</v>
+        <v>0.0274</v>
       </c>
       <c r="W105" t="n">
-        <v>0.0218</v>
+        <v>0.0423</v>
       </c>
       <c r="X105" t="n">
-        <v>0.0791</v>
+        <v>0.0886</v>
       </c>
     </row>
     <row r="106">
@@ -6144,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="O106" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="P106"/>
       <c r="Q106"/>
@@ -6200,7 +6200,7 @@
         <v>0</v>
       </c>
       <c r="W107" t="n">
-        <v>0</v>
+        <v>0.0068</v>
       </c>
       <c r="X107" t="n">
         <v>-0.0001</v>
@@ -6462,7 +6462,7 @@
         <v>0</v>
       </c>
       <c r="O112" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="P112"/>
       <c r="Q112"/>
@@ -6497,7 +6497,7 @@
       <c r="N113"/>
       <c r="O113"/>
       <c r="P113" t="n">
-        <v>-0.0001</v>
+        <v>0</v>
       </c>
       <c r="Q113" t="n">
         <v>-0.0001</v>
@@ -6506,10 +6506,10 @@
         <v>-0.0002</v>
       </c>
       <c r="S113" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="T113" t="n">
         <v>-0.0002</v>
-      </c>
-      <c r="T113" t="n">
-        <v>-0.0003</v>
       </c>
       <c r="U113" t="n">
         <v>-0.0003</v>
@@ -6518,10 +6518,10 @@
         <v>-0.0003</v>
       </c>
       <c r="W113" t="n">
-        <v>-0.0004</v>
+        <v>-0.0007</v>
       </c>
       <c r="X113" t="n">
-        <v>-0.0014</v>
+        <v>-0.0018</v>
       </c>
     </row>
     <row r="114">

--- a/results/05-2024/contributions-comparison-05-2024.xlsx
+++ b/results/05-2024/contributions-comparison-05-2024.xlsx
@@ -667,13 +667,13 @@
       <c r="N3"/>
       <c r="O3"/>
       <c r="P3" t="n">
-        <v>0.0067</v>
+        <v>0.0085</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.006</v>
+        <v>0.0071</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0055</v>
+        <v>0.0062</v>
       </c>
       <c r="S3" t="n">
         <v>0.0056</v>
@@ -985,13 +985,13 @@
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9" t="n">
-        <v>-0.3991</v>
+        <v>-0.4557</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.1106</v>
+        <v>-0.1629</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.1223</v>
+        <v>-0.1465</v>
       </c>
       <c r="S9" t="n">
         <v>-0.4687</v>
@@ -1091,31 +1091,31 @@
       <c r="N11"/>
       <c r="O11"/>
       <c r="P11" t="n">
-        <v>-0.023</v>
+        <v>-0.0256</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.0289</v>
+        <v>-0.0302</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.0223</v>
+        <v>-0.0229</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.0168</v>
+        <v>-0.0161</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0041</v>
+        <v>0.0049</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.0039</v>
+        <v>-0.0031</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.0134</v>
+        <v>-0.0127</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.0281</v>
+        <v>-0.0274</v>
       </c>
       <c r="X11" t="n">
-        <v>-1.794</v>
+        <v>-1.7933</v>
       </c>
     </row>
     <row r="12">
@@ -1197,31 +1197,31 @@
       <c r="N13"/>
       <c r="O13"/>
       <c r="P13" t="n">
-        <v>-0.167</v>
+        <v>-0.1279</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0162</v>
+        <v>0.0584</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.0276</v>
+        <v>0.0104</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0109</v>
+        <v>0.0486</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.0032</v>
+        <v>-0.0036</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0192</v>
+        <v>0.0157</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0327</v>
+        <v>0.033</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0471</v>
+        <v>0.0476</v>
       </c>
       <c r="X13" t="n">
-        <v>-5.1508</v>
+        <v>-5.2081</v>
       </c>
     </row>
     <row r="14">
@@ -1303,31 +1303,31 @@
       <c r="N15"/>
       <c r="O15"/>
       <c r="P15" t="n">
-        <v>0.2001</v>
+        <v>0.1788</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.3412</v>
+        <v>0.3287</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2815</v>
+        <v>0.2853</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.0589</v>
+        <v>-0.0597</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.0737</v>
+        <v>-0.0771</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.0432</v>
+        <v>-0.046</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.0514</v>
+        <v>-0.0541</v>
       </c>
       <c r="W15" t="n">
-        <v>0.0313</v>
+        <v>0.0282</v>
       </c>
       <c r="X15" t="n">
-        <v>7.5608</v>
+        <v>7.6011</v>
       </c>
     </row>
     <row r="16">
@@ -1421,7 +1421,7 @@
         <v>-0.0154</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.0139</v>
+        <v>-0.014</v>
       </c>
       <c r="U17" t="n">
         <v>-0.0141</v>
@@ -1527,16 +1527,16 @@
         <v>-0.0104</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.0099</v>
+        <v>-0.01</v>
       </c>
       <c r="U19" t="n">
         <v>-0.0084</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.0076</v>
+        <v>-0.0077</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.007</v>
+        <v>-0.0071</v>
       </c>
       <c r="X19" t="n">
         <v>-0.0065</v>
@@ -1621,13 +1621,13 @@
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21" t="n">
-        <v>0.0078</v>
+        <v>0.0095</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.0066</v>
+        <v>0.0082</v>
       </c>
       <c r="R21" t="n">
-        <v>0.007</v>
+        <v>0.0077</v>
       </c>
       <c r="S21" t="n">
         <v>0.0064</v>
@@ -1727,22 +1727,22 @@
       <c r="N23"/>
       <c r="O23"/>
       <c r="P23" t="n">
-        <v>0.0263</v>
+        <v>0.0152</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0603</v>
+        <v>0.0421</v>
       </c>
       <c r="R23" t="n">
-        <v>0.0562</v>
+        <v>0.0334</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.0922</v>
+        <v>-0.1148</v>
       </c>
       <c r="T23" t="n">
-        <v>-0.0872</v>
+        <v>-0.0988</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.086</v>
+        <v>-0.0906</v>
       </c>
       <c r="V23" t="n">
         <v>-0.1404</v>
@@ -1845,7 +1845,7 @@
         <v>-0.0298</v>
       </c>
       <c r="T25" t="n">
-        <v>-0.0235</v>
+        <v>-0.0236</v>
       </c>
       <c r="U25" t="n">
         <v>0.0002</v>
@@ -1939,31 +1939,31 @@
       <c r="N27"/>
       <c r="O27"/>
       <c r="P27" t="n">
-        <v>-0.293</v>
+        <v>-0.2931</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.2647</v>
+        <v>-0.2649</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.1076</v>
+        <v>-0.1078</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.0595</v>
+        <v>-0.0597</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.0946</v>
+        <v>-0.0948</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.0705</v>
+        <v>-0.0707</v>
       </c>
       <c r="V27" t="n">
-        <v>-0.0321</v>
+        <v>-0.0322</v>
       </c>
       <c r="W27" t="n">
-        <v>-0.0129</v>
+        <v>-0.0131</v>
       </c>
       <c r="X27" t="n">
-        <v>-0.0741</v>
+        <v>-0.0742</v>
       </c>
     </row>
     <row r="28">
@@ -2151,31 +2151,31 @@
       <c r="N31"/>
       <c r="O31"/>
       <c r="P31" t="n">
-        <v>-0.4618</v>
+        <v>-0.5629</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.1177</v>
+        <v>-0.2064</v>
       </c>
       <c r="R31" t="n">
-        <v>0.118</v>
+        <v>0.094</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.4902</v>
+        <v>-0.4702</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.6694</v>
+        <v>-0.6931</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.4286</v>
+        <v>-0.4406</v>
       </c>
       <c r="V31" t="n">
-        <v>-0.391</v>
+        <v>-0.3915</v>
       </c>
       <c r="W31" t="n">
-        <v>-0.2829</v>
+        <v>-0.282</v>
       </c>
       <c r="X31" t="n">
-        <v>-73.7151</v>
+        <v>-73.7292</v>
       </c>
     </row>
     <row r="32">
@@ -2363,13 +2363,13 @@
       <c r="N35"/>
       <c r="O35"/>
       <c r="P35" t="n">
-        <v>-0.2194</v>
+        <v>-0.2316</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.0194</v>
+        <v>-0.0305</v>
       </c>
       <c r="R35" t="n">
-        <v>0.0066</v>
+        <v>0.0015</v>
       </c>
       <c r="S35" t="n">
         <v>-0.3166</v>
@@ -2787,13 +2787,13 @@
       <c r="N43"/>
       <c r="O43"/>
       <c r="P43" t="n">
-        <v>0.1121</v>
+        <v>0.0493</v>
       </c>
       <c r="Q43" t="n">
-        <v>-0.0901</v>
+        <v>-0.1489</v>
       </c>
       <c r="R43" t="n">
-        <v>-0.1096</v>
+        <v>-0.1368</v>
       </c>
       <c r="S43" t="n">
         <v>0.1891</v>
@@ -2893,31 +2893,31 @@
       <c r="N45"/>
       <c r="O45"/>
       <c r="P45" t="n">
-        <v>-0.0166</v>
+        <v>-0.0165</v>
       </c>
       <c r="Q45" t="n">
-        <v>-0.009</v>
+        <v>-0.0088</v>
       </c>
       <c r="R45" t="n">
-        <v>0.008</v>
+        <v>0.0082</v>
       </c>
       <c r="S45" t="n">
-        <v>0.0225</v>
+        <v>0.0227</v>
       </c>
       <c r="T45" t="n">
-        <v>0.002</v>
+        <v>0.0023</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0022</v>
+        <v>0.0025</v>
       </c>
       <c r="V45" t="n">
-        <v>0.0075</v>
+        <v>0.0078</v>
       </c>
       <c r="W45" t="n">
-        <v>0.0125</v>
+        <v>0.0127</v>
       </c>
       <c r="X45" t="n">
-        <v>0.0753</v>
+        <v>0.0755</v>
       </c>
     </row>
     <row r="46">
@@ -2999,31 +2999,31 @@
       <c r="N47"/>
       <c r="O47"/>
       <c r="P47" t="n">
-        <v>0.1009</v>
+        <v>0.1152</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.047</v>
+        <v>0.0565</v>
       </c>
       <c r="R47" t="n">
-        <v>0.1718</v>
+        <v>0.1805</v>
       </c>
       <c r="S47" t="n">
-        <v>-0.0012</v>
+        <v>0.0073</v>
       </c>
       <c r="T47" t="n">
-        <v>-0.0182</v>
+        <v>-0.0236</v>
       </c>
       <c r="U47" t="n">
-        <v>-0.0156</v>
+        <v>-0.0165</v>
       </c>
       <c r="V47" t="n">
-        <v>-0.0086</v>
+        <v>-0.0087</v>
       </c>
       <c r="W47" t="n">
         <v>-0.0015</v>
       </c>
       <c r="X47" t="n">
-        <v>-0.9989</v>
+        <v>-1.0114</v>
       </c>
     </row>
     <row r="48">
@@ -3105,31 +3105,31 @@
       <c r="N49"/>
       <c r="O49"/>
       <c r="P49" t="n">
-        <v>0.2497</v>
+        <v>0.2563</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.1642</v>
+        <v>0.175</v>
       </c>
       <c r="R49" t="n">
-        <v>0.1303</v>
+        <v>0.1406</v>
       </c>
       <c r="S49" t="n">
-        <v>0.0905</v>
+        <v>0.0987</v>
       </c>
       <c r="T49" t="n">
-        <v>0.0176</v>
+        <v>0.0243</v>
       </c>
       <c r="U49" t="n">
-        <v>0.0477</v>
+        <v>0.0542</v>
       </c>
       <c r="V49" t="n">
-        <v>0.0581</v>
+        <v>0.0646</v>
       </c>
       <c r="W49" t="n">
-        <v>0.0202</v>
+        <v>0.0267</v>
       </c>
       <c r="X49" t="n">
-        <v>3.9202</v>
+        <v>3.9236</v>
       </c>
     </row>
     <row r="50">
@@ -3211,13 +3211,13 @@
       <c r="N51"/>
       <c r="O51"/>
       <c r="P51" t="n">
-        <v>0.0071</v>
+        <v>0.0088</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.0064</v>
+        <v>0.008</v>
       </c>
       <c r="R51" t="n">
-        <v>0.0063</v>
+        <v>0.007</v>
       </c>
       <c r="S51" t="n">
         <v>0.0066</v>
@@ -3529,31 +3529,31 @@
       <c r="N57"/>
       <c r="O57"/>
       <c r="P57" t="n">
-        <v>0.0044</v>
+        <v>-0.0014</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.006</v>
+        <v>-0.0003</v>
       </c>
       <c r="R57" t="n">
-        <v>0.0056</v>
+        <v>-0.0025</v>
       </c>
       <c r="S57" t="n">
-        <v>0.0061</v>
+        <v>-0.0034</v>
       </c>
       <c r="T57" t="n">
-        <v>0.0061</v>
+        <v>-0.0031</v>
       </c>
       <c r="U57" t="n">
-        <v>0.0046</v>
+        <v>-0.0024</v>
       </c>
       <c r="V57" t="n">
-        <v>0.0021</v>
+        <v>-0.0033</v>
       </c>
       <c r="W57" t="n">
-        <v>0.0006</v>
+        <v>-0.0031</v>
       </c>
       <c r="X57" t="n">
-        <v>-0.0731</v>
+        <v>-0.0618</v>
       </c>
     </row>
     <row r="58">
@@ -3635,13 +3635,13 @@
       <c r="N59"/>
       <c r="O59"/>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>0.0017</v>
       </c>
       <c r="Q59" t="n">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
       <c r="R59" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="S59" t="n">
         <v>0</v>
@@ -3953,13 +3953,13 @@
       <c r="N65"/>
       <c r="O65"/>
       <c r="P65" t="n">
-        <v>-0.0393</v>
+        <v>-0.0959</v>
       </c>
       <c r="Q65" t="n">
-        <v>-0.0433</v>
+        <v>-0.0956</v>
       </c>
       <c r="R65" t="n">
-        <v>-0.0386</v>
+        <v>-0.0627</v>
       </c>
       <c r="S65" t="n">
         <v>-0.0466</v>
@@ -4059,31 +4059,31 @@
       <c r="N67"/>
       <c r="O67"/>
       <c r="P67" t="n">
-        <v>0.0973</v>
+        <v>0.0947</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.2093</v>
+        <v>0.2079</v>
       </c>
       <c r="R67" t="n">
-        <v>0.2012</v>
+        <v>0.2006</v>
       </c>
       <c r="S67" t="n">
-        <v>0.267</v>
+        <v>0.2678</v>
       </c>
       <c r="T67" t="n">
-        <v>0.2236</v>
+        <v>0.2243</v>
       </c>
       <c r="U67" t="n">
-        <v>0.1668</v>
+        <v>0.1675</v>
       </c>
       <c r="V67" t="n">
-        <v>0.022</v>
+        <v>0.0227</v>
       </c>
       <c r="W67" t="n">
-        <v>0.086</v>
+        <v>0.0867</v>
       </c>
       <c r="X67" t="n">
-        <v>-1.3667</v>
+        <v>-1.366</v>
       </c>
     </row>
     <row r="68">
@@ -4165,31 +4165,31 @@
       <c r="N69"/>
       <c r="O69"/>
       <c r="P69" t="n">
-        <v>0.0162</v>
+        <v>0.0553</v>
       </c>
       <c r="Q69" t="n">
-        <v>-0.023</v>
+        <v>0.0191</v>
       </c>
       <c r="R69" t="n">
-        <v>-0.0265</v>
+        <v>0.0115</v>
       </c>
       <c r="S69" t="n">
-        <v>-0.0442</v>
+        <v>-0.0065</v>
       </c>
       <c r="T69" t="n">
-        <v>-0.048</v>
+        <v>-0.0484</v>
       </c>
       <c r="U69" t="n">
-        <v>-0.0129</v>
+        <v>-0.0164</v>
       </c>
       <c r="V69" t="n">
-        <v>-0.0158</v>
+        <v>-0.0155</v>
       </c>
       <c r="W69" t="n">
-        <v>-0.0449</v>
+        <v>-0.0444</v>
       </c>
       <c r="X69" t="n">
-        <v>-0.1266</v>
+        <v>-0.1839</v>
       </c>
     </row>
     <row r="70">
@@ -4271,31 +4271,31 @@
       <c r="N71"/>
       <c r="O71"/>
       <c r="P71" t="n">
-        <v>0.0901</v>
+        <v>0.0688</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.0683</v>
+        <v>0.0558</v>
       </c>
       <c r="R71" t="n">
-        <v>0.0728</v>
+        <v>0.0767</v>
       </c>
       <c r="S71" t="n">
-        <v>0.075</v>
+        <v>0.0741</v>
       </c>
       <c r="T71" t="n">
-        <v>0.078</v>
+        <v>0.0746</v>
       </c>
       <c r="U71" t="n">
-        <v>0.0809</v>
+        <v>0.0781</v>
       </c>
       <c r="V71" t="n">
-        <v>0.0659</v>
+        <v>0.0633</v>
       </c>
       <c r="W71" t="n">
-        <v>0.0987</v>
+        <v>0.0956</v>
       </c>
       <c r="X71" t="n">
-        <v>0.098</v>
+        <v>0.1382</v>
       </c>
     </row>
     <row r="72">
@@ -4398,7 +4398,7 @@
         <v>-0.0002</v>
       </c>
       <c r="W73" t="n">
-        <v>-0.0002</v>
+        <v>-0.0003</v>
       </c>
       <c r="X73" t="n">
         <v>-0.0002</v>
@@ -4486,13 +4486,13 @@
         <v>-0.0001</v>
       </c>
       <c r="Q75" t="n">
+        <v>-0.0003</v>
+      </c>
+      <c r="R75" t="n">
+        <v>-0.0003</v>
+      </c>
+      <c r="S75" t="n">
         <v>-0.0002</v>
-      </c>
-      <c r="R75" t="n">
-        <v>-0.0002</v>
-      </c>
-      <c r="S75" t="n">
-        <v>-0.0001</v>
       </c>
       <c r="T75" t="n">
         <v>-0.0002</v>
@@ -4504,7 +4504,7 @@
         <v>-0.0002</v>
       </c>
       <c r="W75" t="n">
-        <v>-0.0001</v>
+        <v>-0.0002</v>
       </c>
       <c r="X75" t="n">
         <v>-0.0001</v>
@@ -4589,13 +4589,13 @@
       <c r="N77"/>
       <c r="O77"/>
       <c r="P77" t="n">
-        <v>0</v>
+        <v>0.0017</v>
       </c>
       <c r="Q77" t="n">
-        <v>0</v>
+        <v>0.0016</v>
       </c>
       <c r="R77" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="S77" t="n">
         <v>0</v>
@@ -4695,22 +4695,22 @@
       <c r="N79"/>
       <c r="O79"/>
       <c r="P79" t="n">
-        <v>0.0021</v>
+        <v>-0.0091</v>
       </c>
       <c r="Q79" t="n">
-        <v>-0.0059</v>
+        <v>-0.0241</v>
       </c>
       <c r="R79" t="n">
-        <v>-0.0137</v>
+        <v>-0.0365</v>
       </c>
       <c r="S79" t="n">
-        <v>-0.0323</v>
+        <v>-0.0549</v>
       </c>
       <c r="T79" t="n">
-        <v>-0.0325</v>
+        <v>-0.0441</v>
       </c>
       <c r="U79" t="n">
-        <v>-0.032</v>
+        <v>-0.0366</v>
       </c>
       <c r="V79" t="n">
         <v>-0.0321</v>
@@ -4807,10 +4807,10 @@
         <v>-0.0003</v>
       </c>
       <c r="R81" t="n">
-        <v>-0.0002</v>
+        <v>-0.0003</v>
       </c>
       <c r="S81" t="n">
-        <v>-0.0003</v>
+        <v>-0.0004</v>
       </c>
       <c r="T81" t="n">
         <v>-0.0003</v>
@@ -4907,31 +4907,31 @@
       <c r="N83"/>
       <c r="O83"/>
       <c r="P83" t="n">
-        <v>-0.001</v>
+        <v>-0.0011</v>
       </c>
       <c r="Q83" t="n">
+        <v>-0.0021</v>
+      </c>
+      <c r="R83" t="n">
+        <v>-0.0017</v>
+      </c>
+      <c r="S83" t="n">
+        <v>-0.0015</v>
+      </c>
+      <c r="T83" t="n">
+        <v>-0.0021</v>
+      </c>
+      <c r="U83" t="n">
         <v>-0.0019</v>
       </c>
-      <c r="R83" t="n">
+      <c r="V83" t="n">
         <v>-0.0015</v>
       </c>
-      <c r="S83" t="n">
-        <v>-0.0013</v>
-      </c>
-      <c r="T83" t="n">
-        <v>-0.0019</v>
-      </c>
-      <c r="U83" t="n">
+      <c r="W83" t="n">
+        <v>-0.0015</v>
+      </c>
+      <c r="X83" t="n">
         <v>-0.0018</v>
-      </c>
-      <c r="V83" t="n">
-        <v>-0.0013</v>
-      </c>
-      <c r="W83" t="n">
-        <v>-0.0013</v>
-      </c>
-      <c r="X83" t="n">
-        <v>-0.0016</v>
       </c>
     </row>
     <row r="84">
@@ -5119,31 +5119,31 @@
       <c r="N87"/>
       <c r="O87"/>
       <c r="P87" t="n">
-        <v>0.2121</v>
+        <v>0.1109</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.2453</v>
+        <v>0.1567</v>
       </c>
       <c r="R87" t="n">
-        <v>0.237</v>
+        <v>0.213</v>
       </c>
       <c r="S87" t="n">
-        <v>0.196</v>
+        <v>0.2161</v>
       </c>
       <c r="T87" t="n">
-        <v>0.1501</v>
+        <v>0.1264</v>
       </c>
       <c r="U87" t="n">
-        <v>0.1356</v>
+        <v>0.1236</v>
       </c>
       <c r="V87" t="n">
-        <v>-0.0205</v>
+        <v>-0.021</v>
       </c>
       <c r="W87" t="n">
-        <v>-0.192</v>
+        <v>-0.1911</v>
       </c>
       <c r="X87" t="n">
-        <v>-3.068</v>
+        <v>-3.082</v>
       </c>
     </row>
     <row r="88">
@@ -5331,13 +5331,13 @@
       <c r="N91"/>
       <c r="O91"/>
       <c r="P91" t="n">
-        <v>-0.0088</v>
+        <v>-0.021</v>
       </c>
       <c r="Q91" t="n">
-        <v>-0.0087</v>
+        <v>-0.0198</v>
       </c>
       <c r="R91" t="n">
-        <v>-0.0086</v>
+        <v>-0.0137</v>
       </c>
       <c r="S91" t="n">
         <v>-0.0118</v>
@@ -5755,13 +5755,13 @@
       <c r="N99"/>
       <c r="O99"/>
       <c r="P99" t="n">
-        <v>-0.0437</v>
+        <v>-0.1065</v>
       </c>
       <c r="Q99" t="n">
-        <v>-0.0464</v>
+        <v>-0.1052</v>
       </c>
       <c r="R99" t="n">
-        <v>-0.0471</v>
+        <v>-0.0743</v>
       </c>
       <c r="S99" t="n">
         <v>-0.0435</v>
@@ -5861,31 +5861,31 @@
       <c r="N101"/>
       <c r="O101"/>
       <c r="P101" t="n">
-        <v>-0.0006</v>
+        <v>-0.0004</v>
       </c>
       <c r="Q101" t="n">
-        <v>-0.0005</v>
+        <v>-0.0003</v>
       </c>
       <c r="R101" t="n">
-        <v>-0.0003</v>
+        <v>0</v>
       </c>
       <c r="S101" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="T101" t="n">
-        <v>-0.0001</v>
+        <v>0.0001</v>
       </c>
       <c r="U101" t="n">
-        <v>-0.0001</v>
+        <v>0.0002</v>
       </c>
       <c r="V101" t="n">
-        <v>0.0001</v>
+        <v>0.0004</v>
       </c>
       <c r="W101" t="n">
-        <v>0.0006</v>
+        <v>0.0009</v>
       </c>
       <c r="X101" t="n">
-        <v>0.0024</v>
+        <v>0.0026</v>
       </c>
     </row>
     <row r="102">
@@ -5967,31 +5967,31 @@
       <c r="N103"/>
       <c r="O103"/>
       <c r="P103" t="n">
-        <v>0.0733</v>
+        <v>0.0876</v>
       </c>
       <c r="Q103" t="n">
-        <v>0.0745</v>
+        <v>0.084</v>
       </c>
       <c r="R103" t="n">
-        <v>0.0746</v>
+        <v>0.0833</v>
       </c>
       <c r="S103" t="n">
-        <v>0.0048</v>
+        <v>0.0133</v>
       </c>
       <c r="T103" t="n">
-        <v>0.0016</v>
+        <v>-0.0038</v>
       </c>
       <c r="U103" t="n">
-        <v>-0.0003</v>
+        <v>-0.0012</v>
       </c>
       <c r="V103" t="n">
-        <v>-0.0009</v>
+        <v>-0.0011</v>
       </c>
       <c r="W103" t="n">
         <v>-0.0062</v>
       </c>
       <c r="X103" t="n">
-        <v>-0.1052</v>
+        <v>-0.1176</v>
       </c>
     </row>
     <row r="104">
@@ -6073,31 +6073,31 @@
       <c r="N105"/>
       <c r="O105"/>
       <c r="P105" t="n">
-        <v>0.0185</v>
+        <v>0.0251</v>
       </c>
       <c r="Q105" t="n">
-        <v>0.0169</v>
+        <v>0.0277</v>
       </c>
       <c r="R105" t="n">
-        <v>0.0194</v>
+        <v>0.0298</v>
       </c>
       <c r="S105" t="n">
-        <v>0.0216</v>
+        <v>0.0297</v>
       </c>
       <c r="T105" t="n">
-        <v>0.023</v>
+        <v>0.0296</v>
       </c>
       <c r="U105" t="n">
-        <v>0.0254</v>
+        <v>0.032</v>
       </c>
       <c r="V105" t="n">
-        <v>0.0274</v>
+        <v>0.0339</v>
       </c>
       <c r="W105" t="n">
-        <v>0.0423</v>
+        <v>0.0487</v>
       </c>
       <c r="X105" t="n">
-        <v>0.0886</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="106">
@@ -6179,13 +6179,13 @@
       <c r="N107"/>
       <c r="O107"/>
       <c r="P107" t="n">
-        <v>0</v>
+        <v>0.0017</v>
       </c>
       <c r="Q107" t="n">
-        <v>0</v>
+        <v>0.0016</v>
       </c>
       <c r="R107" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="S107" t="n">
         <v>0</v>
@@ -6497,31 +6497,31 @@
       <c r="N113"/>
       <c r="O113"/>
       <c r="P113" t="n">
-        <v>0</v>
+        <v>-0.0058</v>
       </c>
       <c r="Q113" t="n">
-        <v>-0.0001</v>
+        <v>-0.0063</v>
       </c>
       <c r="R113" t="n">
-        <v>-0.0002</v>
+        <v>-0.0082</v>
       </c>
       <c r="S113" t="n">
-        <v>-0.0001</v>
+        <v>-0.0096</v>
       </c>
       <c r="T113" t="n">
-        <v>-0.0002</v>
+        <v>-0.0094</v>
       </c>
       <c r="U113" t="n">
-        <v>-0.0003</v>
+        <v>-0.0073</v>
       </c>
       <c r="V113" t="n">
-        <v>-0.0003</v>
+        <v>-0.0057</v>
       </c>
       <c r="W113" t="n">
-        <v>-0.0007</v>
+        <v>-0.0044</v>
       </c>
       <c r="X113" t="n">
-        <v>-0.0018</v>
+        <v>0.0094</v>
       </c>
     </row>
     <row r="114">
